--- a/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,66%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>23,75; 87,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>11,34; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>31,57; 89,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>18,28; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>12,98; 86,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>36,24; 91,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>31,19; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>31,71; 81,97</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,74%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>61,89; 93,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>70,74; 90,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>56,96; 90,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>49,88; 87,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>71,49; 92,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>43,44; 72,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>63,86; 86,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>74,44; 87,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>53,57; 75,52</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,83%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>62,63; 83,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>53,74; 76,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>49,89; 71,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>62,72; 86,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>65,09; 84,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>69,01; 87,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>65,77; 81,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,36</t>
+          <t>62,65; 78,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>61,71; 76,42</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,22%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>58,44; 84,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>54,52; 77,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>31,59; 60,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>59,29; 85,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>51,43; 75,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>52,39; 80,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>62,08; 81,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>56,88; 73,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>46,35; 66,3</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,83%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>66,87; 85,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>56,18; 77,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>50,4; 73,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>60,03; 80,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>56,75; 74,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>48,7; 69,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>66,68; 80,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,06</t>
+          <t>59,85; 74,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>52,87; 68,33</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,49%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>69,05; 81,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>63,79; 75,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>53,79; 66,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>66,96; 78,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>66,36; 76,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>61,11; 72,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>69,95; 78,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>66,76; 74,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>59,27; 67,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>73,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>75,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,66%</t>
+          <t>63,86%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 87,24</t>
+          <t>61,0; 89,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 100,0</t>
+          <t>67,51; 87,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,57; 89,67</t>
+          <t>55,8; 85,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 100,0</t>
+          <t>55,3; 86,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>73,03; 91,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,98; 86,36</t>
+          <t>43,47; 69,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,24; 91,12</t>
+          <t>64,27; 84,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,19; 100,0</t>
+          <t>73,59; 87,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 81,97</t>
+          <t>53,4; 72,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>73,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>60,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,29%</t>
+          <t>74,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,24%</t>
+          <t>71,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>69,83%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,89; 93,09</t>
+          <t>62,63; 83,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,74; 90,2</t>
+          <t>53,74; 76,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,96; 90,26</t>
+          <t>49,89; 71,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,88; 87,43</t>
+          <t>62,72; 86,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,49; 92,94</t>
+          <t>65,09; 84,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,44; 72,74</t>
+          <t>69,01; 87,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,86; 86,93</t>
+          <t>65,77; 81,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,44; 87,82</t>
+          <t>62,65; 78,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,57; 75,52</t>
+          <t>61,71; 76,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>45,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>76,12%</t>
+          <t>64,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,89%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>73,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>57,22%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,63; 83,28</t>
+          <t>58,44; 84,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 76,6</t>
+          <t>54,52; 77,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,89; 71,25</t>
+          <t>31,59; 60,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,72; 86,16</t>
+          <t>59,29; 85,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>65,09; 84,07</t>
+          <t>51,43; 75,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,01; 87,05</t>
+          <t>52,39; 80,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,77; 81,0</t>
+          <t>62,08; 81,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>62,65; 78,04</t>
+          <t>56,88; 73,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,71; 76,42</t>
+          <t>46,35; 66,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>72,88%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,09%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,78%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,25%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,18%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,9%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>60,83%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,44; 84,99</t>
+          <t>66,87; 85,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,52; 77,37</t>
+          <t>56,18; 77,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,59; 60,22</t>
+          <t>50,4; 73,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,29; 85,22</t>
+          <t>60,03; 80,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,43; 75,45</t>
+          <t>56,75; 74,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,39; 80,97</t>
+          <t>48,7; 69,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,08; 81,68</t>
+          <t>66,68; 80,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,88; 73,5</t>
+          <t>59,85; 74,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,35; 66,3</t>
+          <t>52,87; 68,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,87%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>71,19%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>59,93%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>60,83%</t>
+          <t>63,49%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,87; 85,55</t>
+          <t>69,05; 81,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,18; 77,09</t>
+          <t>63,79; 75,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,4; 73,6</t>
+          <t>53,79; 66,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,03; 80,84</t>
+          <t>66,96; 78,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,75; 74,83</t>
+          <t>66,36; 76,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,7; 69,58</t>
+          <t>61,11; 72,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,68; 80,06</t>
+          <t>69,95; 78,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,85; 74,02</t>
+          <t>66,76; 74,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,87; 68,33</t>
+          <t>59,27; 67,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>75,17%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>69,42%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>60,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>73,1%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>72,08%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>66,42%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>74,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>70,69%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>63,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>69,05; 81,13</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>63,79; 75,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>53,79; 66,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>66,96; 78,9</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>66,36; 76,65</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>61,11; 72,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>69,95; 78,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>66,76; 74,33</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>59,27; 67,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>61,0; 89,05</t>
+          <t>62,35; 89,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,51; 87,52</t>
+          <t>67,26; 87,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,8; 85,24</t>
+          <t>58,3; 85,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,3; 86,56</t>
+          <t>54,31; 86,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,03; 91,96</t>
+          <t>72,91; 92,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 69,78</t>
+          <t>42,58; 70,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,27; 84,7</t>
+          <t>63,2; 84,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>73,59; 87,7</t>
+          <t>73,69; 87,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,4; 72,77</t>
+          <t>54,24; 73,85</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,63; 83,28</t>
+          <t>62,98; 82,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,74; 76,6</t>
+          <t>53,47; 76,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,89; 71,25</t>
+          <t>49,35; 70,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,72; 86,16</t>
+          <t>62,32; 86,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,09; 84,07</t>
+          <t>66,16; 85,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,01; 87,05</t>
+          <t>68,31; 87,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,77; 81,0</t>
+          <t>65,99; 81,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,65; 78,04</t>
+          <t>62,81; 77,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,71; 76,42</t>
+          <t>61,95; 76,49</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,44; 84,99</t>
+          <t>57,32; 83,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,52; 77,37</t>
+          <t>54,38; 76,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,59; 60,22</t>
+          <t>31,89; 58,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>59,29; 85,22</t>
+          <t>58,22; 84,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,43; 75,45</t>
+          <t>51,54; 76,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,39; 80,97</t>
+          <t>52,82; 80,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,08; 81,68</t>
+          <t>63,14; 81,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,88; 73,5</t>
+          <t>57,17; 73,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,35; 66,3</t>
+          <t>46,09; 66,96</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,87; 85,55</t>
+          <t>66,35; 86,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,18; 77,09</t>
+          <t>56,67; 76,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,4; 73,6</t>
+          <t>50,96; 72,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,03; 80,84</t>
+          <t>60,34; 80,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,75; 74,83</t>
+          <t>56,81; 75,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,7; 69,58</t>
+          <t>49,34; 69,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>66,68; 80,06</t>
+          <t>65,65; 80,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 74,02</t>
+          <t>59,4; 73,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,87; 68,33</t>
+          <t>52,63; 67,81</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69,05; 81,13</t>
+          <t>69,52; 80,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,79; 75,1</t>
+          <t>63,36; 75,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,79; 66,55</t>
+          <t>53,66; 66,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,96; 78,9</t>
+          <t>66,73; 79,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,36; 76,65</t>
+          <t>66,29; 76,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,11; 72,41</t>
+          <t>60,52; 71,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,95; 78,06</t>
+          <t>70,04; 77,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,76; 74,33</t>
+          <t>66,69; 74,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,27; 67,94</t>
+          <t>58,82; 67,5</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el catarro fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28661</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55378</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29293</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20328</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49834</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32164</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48989</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>105213</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23030; 32928</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46981; 61243</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23265; 34260</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15209; 24235</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43163; 54667</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23984; 39723</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41042; 55188</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95099; 113383</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52199; 71070</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55369</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49116</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51895</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>44287</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59773</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67316</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99657</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108889</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>119212</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>47327; 62026</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39872; 56867</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42139; 60603</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36383; 50542</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51952; 67095</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>58281; 74272</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>88114; 109355</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>96154; 118937</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>105762; 130594</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34618</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>55746</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22737</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32071</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38836</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36558</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66690</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>94582</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59294</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27226; 39886</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45180; 63870</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15840; 29258</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25407; 36754</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31153; 45983</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28505; 43535</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>57542; 74527</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>82051; 105904</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47762; 69390</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51775</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>62687</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>50783</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>61314</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>64152</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56375</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>113089</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>126839</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107158</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>44545; 57798</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53054; 71586</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41830; 59740</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>51963; 69191</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54985; 72939</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46418; 65450</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100620; 123457</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>113108; 139143</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>92714; 119446</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>170424</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>222927</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>154709</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>158002</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>212595</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>192413</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>328425</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>435522</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>347122</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>157612; 183090</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>203461; 240909</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>137942; 170266</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>144232; 170951</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>195530; 226417</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>175313; 208015</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>310172; 344439</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>410887; 458392</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>321595; 369065</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>